--- a/school.xlsx
+++ b/school.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.22.24.66\403-datapub\PHP織田\WHAI3_システム開発\Bチーム【出欠管理システム】\iiduka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Desktop\amsproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD0F15-7A51-4DF5-AEB9-61FFC1E0DEF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83121FDA-F89C-4472-AB3C-B0AE12231CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{C8348F7F-E942-449B-9BDB-8D22B0B2529C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" xr2:uid="{C8348F7F-E942-449B-9BDB-8D22B0B2529C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>物理名</t>
     <rPh sb="0" eb="2">
@@ -391,6 +391,10 @@
   </si>
   <si>
     <t>クラステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,17 +869,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F462F9C6-ADBF-4BF7-A5DB-ADA56E9FE590}">
   <dimension ref="B3:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
@@ -886,7 +890,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -909,7 +913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -924,7 +928,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -935,7 +939,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
@@ -948,7 +952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -961,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -970,7 +974,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -981,7 +985,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1025,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1055,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1083,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1098,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1113,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1118,7 +1122,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
@@ -1129,7 +1133,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1169,7 +1173,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1188,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1203,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1214,7 +1218,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1229,7 +1233,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1246,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1259,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
@@ -1266,7 +1270,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1306,7 +1310,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
@@ -1315,11 +1319,13 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1332,7 +1338,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1347,7 +1353,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1356,7 +1362,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -1367,7 +1373,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1407,7 +1413,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1441,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
@@ -1446,7 +1452,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="6" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>31</v>
       </c>
@@ -1486,7 +1492,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" s="7" t="s">
         <v>25</v>
       </c>
@@ -1514,7 +1520,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
